--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8751B13-DE3C-4F84-A947-06AA69080044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A2D39-75BD-44C5-9BD4-178459B2FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -36,7 +36,19 @@
     <t>Tempo de treinamento</t>
   </si>
   <si>
-    <t>11:34:20 a 23:11:32</t>
+    <t>Bertimbau</t>
+  </si>
+  <si>
+    <t>14:38:43 a 19:07:00</t>
+  </si>
+  <si>
+    <t>19:16:13 a 04:25:43</t>
+  </si>
+  <si>
+    <t>BERTLabse</t>
+  </si>
+  <si>
+    <t>13:36:28 a 00:08:56</t>
   </si>
 </sst>
 </file>
@@ -363,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +402,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518A2D39-75BD-44C5-9BD4-178459B2FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81288BD-2E0C-4164-9A3A-A08E9EBAC735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>13:36:28 a 00:08:56</t>
+  </si>
+  <si>
+    <t>DistilBERT</t>
+  </si>
+  <si>
+    <t>10:48:23 a 20:25:50</t>
+  </si>
+  <si>
+    <t>GPT</t>
+  </si>
+  <si>
+    <t>GPT-2</t>
+  </si>
+  <si>
+    <t>Roberta</t>
   </si>
 </sst>
 </file>
@@ -92,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,6 +437,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81288BD-2E0C-4164-9A3A-A08E9EBAC735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A19AF11-F5A7-4FE5-A9FF-7029AB7975EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Roberta</t>
+  </si>
+  <si>
+    <t>20:29:48 a 07:21:19</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +452,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A19AF11-F5A7-4FE5-A9FF-7029AB7975EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A50B1E-F061-471D-8933-4DC4B32A381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>20:29:48 a 07:21:19</t>
+  </si>
+  <si>
+    <t>13:50:48 a 01:05:07</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +463,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A50B1E-F061-471D-8933-4DC4B32A381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3B6C4-F288-4B59-A8C5-76957A10084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>13:50:48 a 01:05:07</t>
+  </si>
+  <si>
+    <t>10:50:04 a 23:44:47</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +474,9 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormaz\Desktop\Github\SiaiBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3B6C4-F288-4B59-A8C5-76957A10084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B0961D-916C-46B8-A76F-DBAF3FA6E361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Resultados 2023.2</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>10:50:04 a 23:44:47</t>
+  </si>
+  <si>
+    <t>XLNET</t>
+  </si>
+  <si>
+    <t>00:40:20 a 12:12:17</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +484,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t xml:space="preserve">Resultados 2023.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.topster.pt/calendario/zeitrechner.php?styp=zeit&amp;sdatum=2021-01-01&amp;szeit=00%3A40&amp;typ=zeit&amp;edatum=2021-01-01&amp;ezeit=12%3A12&amp;subDazu=%2B&amp;jahredazu=0&amp;wochendazu=0&amp;tagedazu=0&amp;zeitdazu=00%3A00%3A00</t>
   </si>
   <si>
     <t xml:space="preserve">Tempo de treinamento</t>
@@ -209,20 +212,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,339 +253,345 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.39"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="s">
-        <v>18</v>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>16</v>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>0.244</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.265</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.346</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.152</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>0.181</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.162</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>0.212</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>0.164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.268</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.293</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.257</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>0.267</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>0.192</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>0.328</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>0.266</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0.311</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.217</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.217</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>0.209</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>0.165</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>0.211</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>0.213</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0.247</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.212</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.269</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>0.246</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.171</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>0.241</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>0.249</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>0.282</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>0.224</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>0.236</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.287</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>0.247</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>0.142</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>0.278</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>0.214</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>0.296</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>0.284</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.204</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>0.212</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.153</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>0.238</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>0.243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
-        <v>33</v>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>2</v>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="https://www.topster.pt/calendario/zeitrechner.php?styp=zeit&amp;sdatum=2021-01-01&amp;szeit=00%3A40&amp;typ=zeit&amp;edatum=2021-01-01&amp;ezeit=12%3A12&amp;subDazu=%2B&amp;jahredazu=0&amp;wochendazu=0&amp;tagedazu=0&amp;zeitdazu=00%3A00%3A00"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tempos e resultados.xlsx
+++ b/tempos e resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t xml:space="preserve">Resultados 2023.2</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Dúvida para enviar um documento ao TCE , solicitando convênio</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste de tempo</t>
+    <t xml:space="preserve">Teste de tempo (ms)</t>
   </si>
   <si>
     <t xml:space="preserve">no teste de tempo, executa 5 vezes e calcula a media</t>
@@ -250,10 +250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,8 +265,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,6 +587,201 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>537</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>563</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>685</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
